--- a/data/Solver_Input/gani_prop_table.xlsx
+++ b/data/Solver_Input/gani_prop_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>CH3 (1)</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Ti(IV)</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,8 +547,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -566,11 +572,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -900,630 +910,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DR31"/>
+  <dimension ref="A1:DS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DM1" workbookViewId="0">
-      <selection activeCell="DR12" sqref="DR12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="57" max="57" width="17.33203125" customWidth="1"/>
-    <col min="79" max="79" width="24.33203125" customWidth="1"/>
-    <col min="102" max="102" width="30.1640625" customWidth="1"/>
-    <col min="103" max="103" width="27.5" customWidth="1"/>
-    <col min="104" max="104" width="21" customWidth="1"/>
-    <col min="108" max="108" width="18.33203125" customWidth="1"/>
-    <col min="109" max="109" width="16.1640625" customWidth="1"/>
-    <col min="110" max="110" width="25" customWidth="1"/>
-    <col min="111" max="111" width="28.1640625" customWidth="1"/>
-    <col min="112" max="112" width="27.1640625" customWidth="1"/>
-    <col min="113" max="113" width="16.6640625" customWidth="1"/>
-    <col min="114" max="114" width="14.6640625" customWidth="1"/>
-    <col min="115" max="115" width="23.6640625" customWidth="1"/>
-    <col min="116" max="116" width="21.83203125" customWidth="1"/>
-    <col min="117" max="117" width="16.6640625" customWidth="1"/>
-    <col min="118" max="118" width="14" customWidth="1"/>
-    <col min="121" max="121" width="18.83203125" customWidth="1"/>
+    <col min="58" max="58" width="17.33203125" customWidth="1"/>
+    <col min="80" max="80" width="24.33203125" customWidth="1"/>
+    <col min="103" max="103" width="30.1640625" customWidth="1"/>
+    <col min="104" max="104" width="27.5" customWidth="1"/>
+    <col min="105" max="105" width="21" customWidth="1"/>
+    <col min="109" max="109" width="18.33203125" customWidth="1"/>
+    <col min="110" max="110" width="16.1640625" customWidth="1"/>
+    <col min="111" max="111" width="25" customWidth="1"/>
+    <col min="112" max="112" width="28.1640625" customWidth="1"/>
+    <col min="113" max="113" width="27.1640625" customWidth="1"/>
+    <col min="114" max="114" width="16.6640625" customWidth="1"/>
+    <col min="115" max="115" width="14.6640625" customWidth="1"/>
+    <col min="116" max="116" width="23.6640625" customWidth="1"/>
+    <col min="117" max="117" width="21.83203125" customWidth="1"/>
+    <col min="118" max="118" width="16.6640625" customWidth="1"/>
+    <col min="119" max="119" width="14" customWidth="1"/>
+    <col min="122" max="122" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122">
+    <row r="1" spans="1:123">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>110</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>112</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>111</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>113</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>114</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>115</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>116</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>117</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>118</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>119</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>120</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>121</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>122</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>123</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>124</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>125</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>126</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>127</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>128</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>129</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:122">
-      <c r="A2">
+    <row r="2" spans="1:123">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
         <v>1.6780999999999999</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.492</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4.0330000000000004</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4.8822999999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5.0145999999999997</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7.3691000000000004</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.5080999999999998</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8.9581999999999997</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>11.3764</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9.9318000000000008</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3.7336999999999998</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>14.6409</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8.2129999999999992</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10.3239</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10.4664</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>9.7292000000000005</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>25.9145</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>13.2896</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>14.6273</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>10.198600000000001</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>12.596500000000001</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>13.8116</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>11.605700000000001</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>6.4737</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>6.0723000000000003</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5.0663</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>9.5059000000000005</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>12.172599999999999</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>10.2075</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>9.8544</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>10.467700000000001</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>7.2121000000000004</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>7.6924000000000001</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5.5171999999999999</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>28.757000000000001</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>29.152799999999999</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>27.946400000000001</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>20.3781</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>23.7593</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>11.075200000000001</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>10.863200000000001</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>11.395899999999999</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>16.394500000000001</v>
       </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
       <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
         <v>18.587499999999999</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>14.156499999999999</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>24.736899999999999</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>23.204999999999998</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>34.587000000000003</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>13.8058</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>17.3947</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>10.537100000000001</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>7.5433000000000003</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>11.450100000000001</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>5.4333999999999998</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>2.8976999999999999</v>
       </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
       <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
         <v>2.4777999999999998</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>1.7399</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>3.5192000000000001</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>12.1084</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>9.8407999999999998</v>
       </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
       <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
         <v>4.8922999999999996</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>1.5973999999999999</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <v>65.1053</v>
       </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
       <c r="BP2">
         <v>0</v>
       </c>
       <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
         <v>36.140300000000003</v>
       </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
       <c r="BS2">
         <v>0</v>
       </c>
       <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
         <v>17.966799999999999</v>
       </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
       <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
         <v>14.3969</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>17.791599999999999</v>
       </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
       <c r="BY2">
         <v>0</v>
       </c>
@@ -1531,367 +1544,370 @@
         <v>0</v>
       </c>
       <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
         <v>-0.53339999999999999</v>
       </c>
-      <c r="CB2">
+      <c r="CC2">
         <v>-0.51429999999999998</v>
       </c>
-      <c r="CC2">
+      <c r="CD2">
         <v>1.0699000000000001</v>
       </c>
-      <c r="CD2">
+      <c r="CE2">
         <v>1.9885999999999999</v>
       </c>
-      <c r="CE2">
+      <c r="CF2">
         <v>5.8254000000000001</v>
       </c>
-      <c r="CF2">
+      <c r="CG2">
         <v>-2.3304999999999998</v>
       </c>
-      <c r="CG2">
+      <c r="CH2">
         <v>-1.2978000000000001</v>
       </c>
-      <c r="CH2">
+      <c r="CI2">
         <v>-0.67849999999999999</v>
       </c>
-      <c r="CI2">
+      <c r="CJ2">
         <v>0.84789999999999999</v>
       </c>
-      <c r="CJ2">
+      <c r="CK2">
         <v>3.6714000000000002</v>
       </c>
-      <c r="CK2">
+      <c r="CL2">
         <v>0.44019999999999998</v>
       </c>
-      <c r="CL2">
+      <c r="CM2">
         <v>1.67E-2</v>
       </c>
-      <c r="CM2">
+      <c r="CN2">
         <v>-0.52310000000000001</v>
       </c>
-      <c r="CN2">
+      <c r="CO2">
         <v>-0.38500000000000001</v>
       </c>
-      <c r="CO2">
+      <c r="CP2">
         <v>2.1160000000000001</v>
       </c>
-      <c r="CP2">
+      <c r="CQ2">
         <v>2.0427</v>
       </c>
-      <c r="CQ2">
+      <c r="CR2">
         <v>-1.5826</v>
       </c>
-      <c r="CR2">
+      <c r="CS2">
         <v>0.29959999999999998</v>
       </c>
-      <c r="CS2">
+      <c r="CT2">
         <v>0.50180000000000002</v>
       </c>
-      <c r="CT2">
+      <c r="CU2">
         <v>2.9571000000000001</v>
       </c>
-      <c r="CU2">
+      <c r="CV2">
         <v>1.1696</v>
       </c>
-      <c r="CV2">
+      <c r="CW2">
         <v>-1.7493000000000001</v>
       </c>
-      <c r="CW2">
+      <c r="CX2">
         <v>6.1279000000000003</v>
       </c>
-      <c r="CX2">
+      <c r="CY2">
         <v>-1.3406</v>
       </c>
-      <c r="CY2">
+      <c r="CZ2">
         <v>2.5413000000000001</v>
       </c>
-      <c r="CZ2">
+      <c r="DA2">
         <v>-2.7616999999999998</v>
       </c>
-      <c r="DA2">
+      <c r="DB2">
         <v>-3.4235000000000002</v>
       </c>
-      <c r="DB2">
+      <c r="DC2">
         <v>-2.8035000000000001</v>
       </c>
-      <c r="DC2">
+      <c r="DD2">
         <v>-3.5442</v>
       </c>
-      <c r="DD2">
+      <c r="DE2">
         <v>5.4941000000000004</v>
       </c>
-      <c r="DE2">
+      <c r="DF2">
         <v>0.32329999999999998</v>
       </c>
-      <c r="DF2">
+      <c r="DG2">
         <v>5.4863999999999997</v>
       </c>
-      <c r="DG2">
+      <c r="DH2">
         <v>2.0699000000000001</v>
       </c>
-      <c r="DH2">
+      <c r="DI2">
         <v>2.1345000000000001</v>
       </c>
-      <c r="DI2">
+      <c r="DJ2">
         <v>1.0159</v>
       </c>
-      <c r="DJ2">
+      <c r="DK2">
         <v>-5.3307000000000002</v>
       </c>
-      <c r="DK2">
+      <c r="DL2">
         <v>4.4847000000000001</v>
       </c>
-      <c r="DL2">
+      <c r="DM2">
         <v>-0.49959999999999999</v>
       </c>
-      <c r="DM2">
+      <c r="DN2">
         <v>-1.9334</v>
       </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
       <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
         <v>-2.2974000000000001</v>
       </c>
-      <c r="DP2">
+      <c r="DQ2">
         <v>2.8906999999999998</v>
       </c>
-      <c r="DQ2">
-        <v>0</v>
-      </c>
       <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
         <v>-2.3504999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:122">
-      <c r="A3">
+    <row r="3" spans="1:123">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1.06E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1.04E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.23E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.26E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2E-3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2.8E-3</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-7.4000000000000003E-3</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.78E-2</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.41E-2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2.18E-2</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1.38E-2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1.26E-2</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1.26E-2</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1.04E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>3.61E-2</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1.15E-2</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>1.14E-2</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>3.49E-2</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>2.8E-3</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>-1.8E-3</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>1.6E-2</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
       <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>1.29E-2</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
       <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
         <v>3.9E-2</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <v>1.44E-2</v>
       </c>
-      <c r="BN3">
+      <c r="BO3">
         <v>4.3E-3</v>
       </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
       <c r="BP3">
         <v>0</v>
       </c>
       <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
       <c r="BS3">
         <v>0</v>
       </c>
       <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
       <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
         <v>1.6E-2</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>1.11E-2</v>
       </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
       <c r="BY3">
         <v>0</v>
       </c>
@@ -1899,367 +1915,370 @@
         <v>0</v>
       </c>
       <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
         <v>4.8799999999999999E-4</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>1.41E-3</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>-1.8500000000000001E-3</v>
       </c>
-      <c r="CD3">
+      <c r="CE3">
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="CE3">
+      <c r="CF3">
         <v>-1.323E-2</v>
       </c>
-      <c r="CF3">
+      <c r="CG3">
         <v>3.7139999999999999E-3</v>
       </c>
-      <c r="CG3">
+      <c r="CH3">
         <v>1.1709999999999999E-3</v>
       </c>
-      <c r="CH3">
+      <c r="CI3">
         <v>4.2400000000000001E-4</v>
       </c>
-      <c r="CI3">
+      <c r="CJ3">
         <v>2.2569999999999999E-3</v>
       </c>
-      <c r="CJ3">
+      <c r="CK3">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="CK3">
+      <c r="CL3">
         <v>4.1859999999999996E-3</v>
       </c>
-      <c r="CL3">
+      <c r="CM3">
         <v>-1.8000000000000001E-4</v>
       </c>
-      <c r="CM3">
+      <c r="CN3">
         <v>3.5379999999999999E-3</v>
       </c>
-      <c r="CN3">
+      <c r="CO3">
         <v>5.6750000000000004E-3</v>
       </c>
-      <c r="CO3">
+      <c r="CP3">
         <v>-2.5500000000000002E-3</v>
       </c>
-      <c r="CP3">
+      <c r="CQ3">
         <v>5.1749999999999999E-3</v>
       </c>
-      <c r="CQ3">
+      <c r="CR3">
         <v>3.6589999999999999E-3</v>
       </c>
-      <c r="CR3">
+      <c r="CS3">
         <v>1.474E-3</v>
       </c>
-      <c r="CS3">
+      <c r="CT3">
         <v>-2.3E-3</v>
       </c>
-      <c r="CT3">
+      <c r="CU3">
         <v>3.8180000000000002E-3</v>
       </c>
-      <c r="CU3">
+      <c r="CV3">
         <v>-2.48E-3</v>
       </c>
-      <c r="CV3">
+      <c r="CW3">
         <v>4.9199999999999999E-3</v>
       </c>
-      <c r="CW3">
+      <c r="CX3">
         <v>3.4400000000000001E-4</v>
       </c>
-      <c r="CX3">
+      <c r="CY3">
         <v>6.5899999999999997E-4</v>
       </c>
-      <c r="CY3">
+      <c r="CZ3">
         <v>1.067E-3</v>
       </c>
-      <c r="CZ3">
+      <c r="DA3">
         <v>-4.8799999999999998E-3</v>
       </c>
-      <c r="DA3">
+      <c r="DB3">
         <v>-5.4000000000000001E-4</v>
       </c>
-      <c r="DB3">
+      <c r="DC3">
         <v>-4.3899999999999998E-3</v>
       </c>
-      <c r="DC3">
+      <c r="DD3">
         <v>1.7799999999999999E-4</v>
       </c>
-      <c r="DD3">
+      <c r="DE3">
         <v>5.0520000000000001E-3</v>
       </c>
-      <c r="DE3">
+      <c r="DF3">
         <v>6.9170000000000004E-3</v>
       </c>
-      <c r="DF3">
+      <c r="DG3">
         <v>1.408E-3</v>
       </c>
-      <c r="DG3">
+      <c r="DH3">
         <v>2.1480000000000002E-3</v>
       </c>
-      <c r="DH3">
+      <c r="DI3">
         <v>-5.9500000000000004E-3</v>
       </c>
-      <c r="DI3">
+      <c r="DJ3">
         <v>-8.8000000000000003E-4</v>
       </c>
-      <c r="DJ3">
+      <c r="DK3">
         <v>-2.2499999999999998E-3</v>
       </c>
-      <c r="DK3">
-        <v>0</v>
-      </c>
       <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
         <v>3.19E-4</v>
       </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
       <c r="DN3">
         <v>0</v>
       </c>
       <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
         <v>9.0270000000000003E-3</v>
       </c>
-      <c r="DP3">
+      <c r="DQ3">
         <v>8.2470000000000009E-3</v>
       </c>
-      <c r="DQ3">
-        <v>0</v>
-      </c>
       <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
         <v>2.555E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:122">
-      <c r="A4">
+    <row r="4" spans="1:123">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3.15E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.11650000000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.14829999999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.1036</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3.9E-2</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.13400000000000001</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.1119</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.13650000000000001</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.1056</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.1313</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.1215</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.126</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.24829999999999999</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>0.17030000000000001</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.1583</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>0.1019</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>0.11559999999999999</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>0.10349999999999999</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>0.16950000000000001</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
       <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
         <v>0.21029999999999999</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>0.1016</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>0.1653</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>0.14230000000000001</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>0.1426</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>0.10249999999999999</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.1081</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>5.67E-2</v>
       </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
       <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
         <v>0.1148</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
       <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>0.18210000000000001</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
       <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
         <v>0.14749999999999999</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <v>3.78E-2</v>
       </c>
-      <c r="BN4">
+      <c r="BO4">
         <v>0.14430000000000001</v>
       </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
       <c r="BP4">
         <v>0</v>
       </c>
       <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
         <v>0.25030000000000002</v>
       </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
         <v>0.16750000000000001</v>
       </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
       <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
         <v>0.13020000000000001</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>0.11650000000000001</v>
       </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
       <c r="BY4">
         <v>0</v>
       </c>
@@ -2267,244 +2286,247 @@
         <v>0</v>
       </c>
       <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>5.7200000000000003E-3</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>-3.98E-3</v>
       </c>
-      <c r="CD4">
+      <c r="CE4">
         <v>-1.081E-2</v>
       </c>
-      <c r="CE4">
+      <c r="CF4">
         <v>-2.3E-2</v>
       </c>
-      <c r="CF4">
+      <c r="CG4">
         <v>-1.3999999999999999E-4</v>
       </c>
-      <c r="CG4">
+      <c r="CH4">
         <v>-8.5100000000000002E-3</v>
       </c>
-      <c r="CH4">
+      <c r="CI4">
         <v>-8.6599999999999993E-3</v>
       </c>
-      <c r="CI4">
+      <c r="CJ4">
         <v>1.636E-2</v>
       </c>
-      <c r="CJ4">
+      <c r="CK4">
         <v>-2.7E-2</v>
       </c>
-      <c r="CK4">
+      <c r="CL4">
         <v>-7.8100000000000001E-3</v>
       </c>
-      <c r="CL4">
+      <c r="CM4">
         <v>-9.7999999999999997E-4</v>
       </c>
-      <c r="CM4">
+      <c r="CN4">
         <v>2.81E-3</v>
       </c>
-      <c r="CN4">
+      <c r="CO4">
         <v>8.26E-3</v>
       </c>
-      <c r="CO4">
+      <c r="CP4">
         <v>-1.755E-2</v>
       </c>
-      <c r="CP4">
+      <c r="CQ4">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="CQ4">
+      <c r="CR4">
         <v>-6.6400000000000001E-3</v>
       </c>
-      <c r="CR4">
+      <c r="CS4">
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="CS4">
+      <c r="CT4">
         <v>-1.2199999999999999E-3</v>
       </c>
-      <c r="CT4">
+      <c r="CU4">
         <v>-1.966E-2</v>
       </c>
-      <c r="CU4">
+      <c r="CV4">
         <v>6.6400000000000001E-3</v>
       </c>
-      <c r="CV4">
+      <c r="CW4">
         <v>5.5900000000000004E-3</v>
       </c>
-      <c r="CW4">
+      <c r="CX4">
         <v>-4.15E-3</v>
       </c>
-      <c r="CX4">
+      <c r="CY4">
         <v>-2.9299999999999999E-3</v>
       </c>
-      <c r="CY4">
+      <c r="CZ4">
         <v>-5.9100000000000003E-3</v>
       </c>
-      <c r="CZ4">
+      <c r="DA4">
         <v>-1.4400000000000001E-3</v>
       </c>
-      <c r="DA4">
+      <c r="DB4">
         <v>2.605E-2</v>
       </c>
-      <c r="DB4">
+      <c r="DC4">
         <v>-7.77E-3</v>
       </c>
-      <c r="DC4">
+      <c r="DD4">
         <v>1.511E-2</v>
       </c>
-      <c r="DD4">
+      <c r="DE4">
         <v>3.9699999999999996E-3</v>
       </c>
-      <c r="DE4">
+      <c r="DF4">
         <v>-2.2970000000000001E-2</v>
       </c>
-      <c r="DF4">
+      <c r="DG4">
         <v>4.3299999999999996E-3</v>
       </c>
-      <c r="DG4">
+      <c r="DH4">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="DH4">
+      <c r="DI4">
         <v>-1.38E-2</v>
       </c>
-      <c r="DI4">
+      <c r="DJ4">
         <v>2.97E-3</v>
       </c>
-      <c r="DJ4">
+      <c r="DK4">
         <v>-4.4999999999999999E-4</v>
       </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
       <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
         <v>-5.96E-3</v>
       </c>
-      <c r="DM4">
+      <c r="DN4">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
       <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
         <v>-8.3199999999999993E-3</v>
       </c>
-      <c r="DP4">
+      <c r="DQ4">
         <v>-3.4099999999999998E-3</v>
       </c>
-      <c r="DQ4">
-        <v>0</v>
-      </c>
       <c r="DR4">
         <v>0</v>
       </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:122">
-      <c r="A5">
+    <row r="5" spans="1:123">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
         <v>0.29599999999999999</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.252</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.223</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.21</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.152</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.7E-2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.33400000000000002</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-8.7999999999999995E-2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.524</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.73699999999999999</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1.0149999999999999</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.63300000000000001</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.96299999999999997</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.133</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.75600000000000001</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.76500000000000001</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.52600000000000002</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.442</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.218</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.50900000000000001</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.8</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>0.95299999999999996</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.38600000000000001</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>0.38400000000000001</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.79300000000000004</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
       <c r="AJ5">
         <v>0</v>
       </c>
@@ -2512,35 +2534,35 @@
         <v>0</v>
       </c>
       <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>1.67</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>0.71599999999999997</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>0.61699999999999999</v>
       </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
       <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>0.29599999999999999</v>
       </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
       <c r="AV5">
         <v>0</v>
       </c>
@@ -2551,29 +2573,29 @@
         <v>0</v>
       </c>
       <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
         <v>0.23300000000000001</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.27800000000000002</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.61799999999999999</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
       <c r="BC5">
         <v>0</v>
       </c>
       <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
         <v>0.26300000000000001</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>0.5</v>
       </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
       <c r="BG5">
         <v>0</v>
       </c>
@@ -2584,17 +2606,17 @@
         <v>0</v>
       </c>
       <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
         <v>0.503</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
       <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
         <v>0.54700000000000004</v>
       </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
       <c r="BN5">
         <v>0</v>
       </c>
@@ -2614,116 +2636,116 @@
         <v>0</v>
       </c>
       <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
         <v>0.42799999999999999</v>
       </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
       <c r="BV5">
         <v>0</v>
       </c>
       <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
         <v>0.438</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>0.73899999999999999</v>
       </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
       <c r="BZ5">
         <v>0</v>
       </c>
       <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>1.9220000000000001E-2</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>-4.7499999999999999E-3</v>
       </c>
-      <c r="CD5">
+      <c r="CE5">
         <v>-2.8830000000000001E-2</v>
       </c>
-      <c r="CE5">
+      <c r="CF5">
         <v>-8.6319999999999994E-2</v>
       </c>
-      <c r="CF5">
+      <c r="CG5">
         <v>0.17563000000000001</v>
       </c>
-      <c r="CG5">
+      <c r="CH5">
         <v>0.22216</v>
       </c>
-      <c r="CH5">
+      <c r="CI5">
         <v>0.16284000000000001</v>
       </c>
-      <c r="CI5">
+      <c r="CJ5">
         <v>-3.065E-2</v>
       </c>
-      <c r="CJ5">
+      <c r="CK5">
         <v>-2.094E-2</v>
       </c>
-      <c r="CK5">
+      <c r="CL5">
         <v>1.6480000000000002E-2</v>
       </c>
-      <c r="CL5">
+      <c r="CM5">
         <v>6.1900000000000002E-3</v>
       </c>
-      <c r="CM5">
+      <c r="CN5">
         <v>-1.15E-2</v>
       </c>
-      <c r="CN5">
+      <c r="CO5">
         <v>2.7779999999999999E-2</v>
       </c>
-      <c r="CO5">
+      <c r="CP5">
         <v>-0.11024</v>
       </c>
-      <c r="CP5">
+      <c r="CQ5">
         <v>-0.1124</v>
       </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
       <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
         <v>-0.20788999999999999</v>
       </c>
-      <c r="CS5">
+      <c r="CT5">
         <v>-0.16571</v>
       </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
       <c r="CU5">
         <v>0</v>
       </c>
       <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
         <v>8.7739999999999999E-2</v>
       </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
       <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
         <v>-0.26623000000000002</v>
       </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
       <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
         <v>0.91939000000000004</v>
       </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
       <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
         <v>3.6540000000000003E-2</v>
       </c>
-      <c r="DC5">
+      <c r="DD5">
         <v>0.21106</v>
       </c>
-      <c r="DD5">
-        <v>0</v>
-      </c>
       <c r="DE5">
         <v>0</v>
       </c>
@@ -2734,20 +2756,20 @@
         <v>0</v>
       </c>
       <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
         <v>-0.13106000000000001</v>
       </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
       <c r="DJ5">
         <v>0</v>
       </c>
       <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
         <v>-1.5089999999999999E-2</v>
       </c>
-      <c r="DL5">
-        <v>0</v>
-      </c>
       <c r="DM5">
         <v>0</v>
       </c>
@@ -2755,214 +2777,217 @@
         <v>0</v>
       </c>
       <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
         <v>-3.0779999999999998E-2</v>
       </c>
-      <c r="DP5">
+      <c r="DQ5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="DQ5">
-        <v>0</v>
-      </c>
       <c r="DR5">
         <v>0</v>
       </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:122">
-      <c r="A6">
+    <row r="6" spans="1:123">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
         <v>4.1159999999999997</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4.6500000000000004</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.7709999999999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.284</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6.7140000000000004</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7.37</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6.7969999999999997</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8.1780000000000008</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9.3420000000000005</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12.318</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4.0979999999999999</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12.552</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>9.7759999999999998</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>10.185</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>8.8339999999999996</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>24.529</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>40.246000000000002</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>18.998999999999999</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>20.041</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>12.909000000000001</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>22.709</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>17.759</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>10.919</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>7.4779999999999998</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>5.7080000000000002</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>11.227</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>14.599</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>11.875999999999999</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>14.452</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>14.481</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>6.9470000000000001</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>6.9180000000000001</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>28.452999999999999</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>31.523</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>31.004999999999999</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>23.34</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>43.045999999999999</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>13.78</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>11.984999999999999</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>9.8179999999999996</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>19.207999999999998</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>17.574000000000002</v>
       </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
       <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
         <v>11.882999999999999</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>30.643999999999998</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>26.277000000000001</v>
       </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
       <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
         <v>14.930999999999999</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>14.364000000000001</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>11.423</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>7.7510000000000003</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>11.548999999999999</v>
       </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
       <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
         <v>4.8769999999999998</v>
       </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
       <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
         <v>8.9009999999999998</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>1.86</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>8.9009999999999998</v>
       </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
       <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
         <v>13.321999999999999</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
       <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
         <v>8.3010000000000002</v>
       </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
       <c r="BN6">
         <v>0</v>
       </c>
@@ -2970,11 +2995,11 @@
         <v>0</v>
       </c>
       <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
         <v>51.786999999999999</v>
       </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
       <c r="BR6">
         <v>0</v>
       </c>
@@ -2988,134 +3013,134 @@
         <v>0</v>
       </c>
       <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
         <v>16.920999999999999</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>17.117000000000001</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>13.265000000000001</v>
       </c>
-      <c r="BY6">
+      <c r="BZ6">
         <v>27.966000000000001</v>
       </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
       <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
         <v>0.29199999999999998</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>-0.72</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>0.86799999999999999</v>
       </c>
-      <c r="CD6">
+      <c r="CE6">
         <v>1.0269999999999999</v>
       </c>
-      <c r="CE6">
+      <c r="CF6">
         <v>2.4260000000000002</v>
       </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
       <c r="CG6">
         <v>0</v>
       </c>
       <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
         <v>-0.56799999999999995</v>
       </c>
-      <c r="CI6">
+      <c r="CJ6">
         <v>-0.90500000000000003</v>
       </c>
-      <c r="CJ6">
+      <c r="CK6">
         <v>-0.84699999999999998</v>
       </c>
-      <c r="CK6">
+      <c r="CL6">
         <v>2.0569999999999999</v>
       </c>
-      <c r="CL6">
+      <c r="CM6">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="CM6">
+      <c r="CN6">
         <v>-0.36899999999999999</v>
       </c>
-      <c r="CN6">
+      <c r="CO6">
         <v>0.34499999999999997</v>
       </c>
-      <c r="CO6">
+      <c r="CP6">
         <v>-0.114</v>
       </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
       <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
         <v>0.20699999999999999</v>
       </c>
-      <c r="CR6">
+      <c r="CS6">
         <v>-0.66800000000000004</v>
       </c>
-      <c r="CS6">
+      <c r="CT6">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="CT6">
+      <c r="CU6">
         <v>0.74399999999999999</v>
       </c>
-      <c r="CU6">
+      <c r="CV6">
         <v>-3.41</v>
       </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
       <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
         <v>8.5020000000000007</v>
       </c>
-      <c r="CX6">
+      <c r="CY6">
         <v>-3.3450000000000002</v>
       </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
       <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
         <v>1.5169999999999999</v>
       </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
       <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
         <v>-1.3979999999999999</v>
       </c>
-      <c r="DC6">
+      <c r="DD6">
         <v>0.32</v>
       </c>
-      <c r="DD6">
+      <c r="DE6">
         <v>-3.661</v>
       </c>
-      <c r="DE6">
+      <c r="DF6">
         <v>4.6260000000000003</v>
       </c>
-      <c r="DF6">
-        <v>0</v>
-      </c>
       <c r="DG6">
         <v>0</v>
       </c>
       <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
         <v>2.3109999999999999</v>
       </c>
-      <c r="DI6">
-        <v>0</v>
-      </c>
       <c r="DJ6">
         <v>0</v>
       </c>
       <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
         <v>0.97199999999999998</v>
       </c>
-      <c r="DL6">
-        <v>0</v>
-      </c>
       <c r="DM6">
         <v>0</v>
       </c>
@@ -3123,190 +3148,193 @@
         <v>0</v>
       </c>
       <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
         <v>-7.4880000000000004</v>
       </c>
-      <c r="DP6">
+      <c r="DQ6">
         <v>-4.8639999999999999</v>
       </c>
-      <c r="DQ6">
-        <v>0</v>
-      </c>
       <c r="DR6">
         <v>0</v>
       </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:122">
-      <c r="A7">
+    <row r="7" spans="1:123">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-3.8E-3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.73E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.69E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.7E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.61E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.32E-2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.02</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3.27E-2</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2.06E-2</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1.95E-2</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1.37E-2</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>6.08E-2</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2.23E-2</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>6.2E-2</v>
       </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
       <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
         <v>2.41E-2</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
       <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
       <c r="BF7">
         <v>0</v>
       </c>
@@ -3317,20 +3345,20 @@
         <v>0</v>
       </c>
       <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
       <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
       <c r="BN7">
         <v>0</v>
       </c>
@@ -3341,29 +3369,29 @@
         <v>0</v>
       </c>
       <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
       <c r="BS7">
         <v>0</v>
       </c>
       <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
       <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
       <c r="BY7">
         <v>0</v>
       </c>
@@ -3371,119 +3399,119 @@
         <v>0</v>
       </c>
       <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
         <v>1.33E-3</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>1.7899999999999999E-3</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>-2.0300000000000001E-3</v>
       </c>
-      <c r="CD7">
+      <c r="CE7">
         <v>-2.4299999999999999E-3</v>
       </c>
-      <c r="CE7">
+      <c r="CF7">
         <v>-7.4400000000000004E-3</v>
       </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
       <c r="CG7">
         <v>0</v>
       </c>
       <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
         <v>2.1299999999999999E-3</v>
       </c>
-      <c r="CI7">
+      <c r="CJ7">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="CJ7">
+      <c r="CK7">
         <v>-5.1900000000000002E-3</v>
       </c>
-      <c r="CK7">
+      <c r="CL7">
         <v>-1.8799999999999999E-3</v>
       </c>
-      <c r="CL7">
+      <c r="CM7">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="CM7">
+      <c r="CN7">
         <v>1.2E-4</v>
       </c>
-      <c r="CN7">
+      <c r="CO7">
         <v>1.42E-3</v>
       </c>
-      <c r="CO7">
+      <c r="CP7">
         <v>-1.07E-3</v>
       </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
       <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
         <v>-9.0000000000000006E-5</v>
       </c>
-      <c r="CR7">
+      <c r="CS7">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="CS7">
+      <c r="CT7">
         <v>-1.08E-3</v>
       </c>
-      <c r="CT7">
+      <c r="CU7">
         <v>-1.1100000000000001E-3</v>
       </c>
-      <c r="CU7">
+      <c r="CV7">
         <v>-3.6000000000000002E-4</v>
       </c>
-      <c r="CV7">
+      <c r="CW7">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="CW7">
+      <c r="CX7">
         <v>7.77E-3</v>
       </c>
-      <c r="CX7">
+      <c r="CY7">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="CY7">
+      <c r="CZ7">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="CZ7">
+      <c r="DA7">
         <v>1.98E-3</v>
       </c>
-      <c r="DA7">
+      <c r="DB7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="DB7">
+      <c r="DC7">
         <v>-9.2000000000000003E-4</v>
       </c>
-      <c r="DC7">
+      <c r="DD7">
         <v>1.75E-3</v>
       </c>
-      <c r="DD7">
+      <c r="DE7">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="DE7">
+      <c r="DF7">
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="DF7">
+      <c r="DG7">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="DG7">
-        <v>0</v>
-      </c>
       <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
         <v>-1.7899999999999999E-3</v>
       </c>
-      <c r="DI7">
+      <c r="DJ7">
         <v>-2.0600000000000002E-3</v>
       </c>
-      <c r="DJ7">
+      <c r="DK7">
         <v>1.2030000000000001E-2</v>
       </c>
-      <c r="DK7">
+      <c r="DL7">
         <v>-2.3000000000000001E-4</v>
       </c>
-      <c r="DL7">
-        <v>0</v>
-      </c>
       <c r="DM7">
         <v>0</v>
       </c>
@@ -3491,199 +3519,202 @@
         <v>0</v>
       </c>
       <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="DP7">
+      <c r="DQ7">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="DQ7">
-        <v>0</v>
-      </c>
       <c r="DR7">
         <v>0</v>
       </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:122">
-      <c r="A8">
+    <row r="8" spans="1:123">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
         <v>35.115200000000002</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>22.634599999999999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8.9271999999999991</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.34560000000000002</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>49.250599999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>35.224800000000002</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>37.629899999999999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>21.352799999999998</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10.2797</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>66.057400000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>16.3794</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>10.4283</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>42.856900000000003</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>32.820599999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>19.950399999999998</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>27.210699999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>39.7712</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>59.303199999999997</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>40.750100000000003</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>66.842299999999994</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>51.504800000000003</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>50.560400000000001</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>39.578400000000002</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>25.675000000000001</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
       <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>57.686100000000003</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>44.112200000000001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>53.7012</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>44.638800000000003</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>41.406399999999998</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>30.156099999999999</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>47.131100000000004</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>84.760199999999998</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
       <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>58.283700000000003</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>46.557699999999997</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>48.464799999999997</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>36.588500000000003</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>29.184799999999999</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>60.8262</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>56.168500000000002</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>78.605400000000003</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>33.645000000000003</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>63.7851</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>51.144199999999998</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
       <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
         <v>58.244500000000002</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>29.1815</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>28.026</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>45.976799999999997</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>26.737100000000002</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>25.8094</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>30.169599999999999</v>
       </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
       <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
         <v>63.202399999999997</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>44.356699999999996</v>
       </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
       <c r="BI8">
         <v>0</v>
       </c>
@@ -3697,11 +3728,11 @@
         <v>0</v>
       </c>
       <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
         <v>22.208200000000001</v>
       </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
       <c r="BO8">
         <v>0</v>
       </c>
@@ -3724,77 +3755,77 @@
         <v>0</v>
       </c>
       <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
         <v>57.767000000000003</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>45.031399999999998</v>
       </c>
-      <c r="BX8">
+      <c r="BY8">
         <v>40.527500000000003</v>
       </c>
-      <c r="BY8">
+      <c r="BZ8">
         <v>80.301000000000002</v>
       </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
       <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
         <v>0.58299999999999996</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>0.3226</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>0.96679999999999999</v>
       </c>
-      <c r="CD8">
+      <c r="CE8">
         <v>-0.30819999999999997</v>
       </c>
-      <c r="CE8">
+      <c r="CF8">
         <v>-0.1201</v>
       </c>
-      <c r="CF8">
+      <c r="CG8">
         <v>8.5546000000000006</v>
       </c>
-      <c r="CG8">
+      <c r="CH8">
         <v>3.1720999999999999</v>
       </c>
-      <c r="CH8">
+      <c r="CI8">
         <v>-5.9059999999999997</v>
       </c>
-      <c r="CI8">
+      <c r="CJ8">
         <v>-3.9681999999999999</v>
       </c>
-      <c r="CJ8">
+      <c r="CK8">
         <v>-3.2746</v>
       </c>
-      <c r="CK8">
+      <c r="CL8">
         <v>2.6141999999999999</v>
       </c>
-      <c r="CL8">
+      <c r="CM8">
         <v>-1.3913</v>
       </c>
-      <c r="CM8">
+      <c r="CN8">
         <v>0.26300000000000001</v>
       </c>
-      <c r="CN8">
+      <c r="CO8">
         <v>6.5145</v>
       </c>
-      <c r="CO8">
+      <c r="CP8">
         <v>4.1707000000000001</v>
       </c>
-      <c r="CP8">
-        <v>0</v>
-      </c>
       <c r="CQ8">
         <v>0</v>
       </c>
       <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
         <v>3.7978000000000001</v>
       </c>
-      <c r="CS8">
-        <v>0</v>
-      </c>
       <c r="CT8">
         <v>0</v>
       </c>
@@ -3805,29 +3836,29 @@
         <v>0</v>
       </c>
       <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
         <v>-15.7667</v>
       </c>
-      <c r="CX8">
-        <v>0</v>
-      </c>
       <c r="CY8">
         <v>0</v>
       </c>
       <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
         <v>-6.4071999999999996</v>
       </c>
-      <c r="DA8">
-        <v>0</v>
-      </c>
       <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
         <v>2.4483999999999999</v>
       </c>
-      <c r="DC8">
+      <c r="DD8">
         <v>-1.5251999999999999</v>
       </c>
-      <c r="DD8">
-        <v>0</v>
-      </c>
       <c r="DE8">
         <v>0</v>
       </c>
@@ -3847,211 +3878,214 @@
         <v>0</v>
       </c>
       <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
         <v>-2.7406999999999999</v>
       </c>
-      <c r="DL8">
-        <v>0</v>
-      </c>
       <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
         <v>-1.6978</v>
       </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
       <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
         <v>-2.2923</v>
       </c>
-      <c r="DP8">
+      <c r="DQ8">
         <v>-0.31619999999999998</v>
       </c>
-      <c r="DQ8">
-        <v>0</v>
-      </c>
       <c r="DR8">
         <v>0</v>
       </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:122">
-      <c r="A9">
+    <row r="9" spans="1:123">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
         <v>39.592300000000002</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>45.093299999999999</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>59.9786</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>74.036799999999999</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>59.384</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>62.192399999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>62.128500000000003</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>66.3947</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>65.537199999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>69.393600000000006</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>32.743299999999998</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>25.363399999999999</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>65.6464</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>70.415300000000002</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>81.876400000000004</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2.7608999999999999</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>35.567599999999999</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>67.814899999999994</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>19.699000000000002</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>102.45529999999999</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>44.4133</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>38.9681</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>41.817700000000002</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>24.728100000000001</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>64.076800000000006</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>77.215500000000006</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>71.794799999999995</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>68.504099999999994</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>85.099599999999995</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>81.681399999999996</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>51.332599999999999</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>177.25129999999999</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
       <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>49.638800000000003</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>48.232199999999999</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>37.237000000000002</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>47.6004</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>52.381700000000002</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>41.9908</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>46.933700000000002</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>32.131799999999998</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>23.2759</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>83.474400000000003</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>94.293400000000005</v>
       </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
       <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
         <v>46.995800000000003</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>-9.7845999999999993</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>-7.1650999999999998</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>20.6417</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>21.767600000000002</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>-5.2241</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>26.973800000000001</v>
       </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
       <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
         <v>51.936599999999999</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>44.587499999999999</v>
       </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
       <c r="BI9">
         <v>0</v>
       </c>
@@ -4065,11 +4099,11 @@
         <v>0</v>
       </c>
       <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
         <v>-2.8384999999999998</v>
       </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
       <c r="BO9">
         <v>0</v>
       </c>
@@ -4092,77 +4126,77 @@
         <v>0</v>
       </c>
       <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
         <v>44.123800000000003</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>55.1432</v>
       </c>
-      <c r="BX9">
+      <c r="BY9">
         <v>55.014099999999999</v>
       </c>
-      <c r="BY9">
+      <c r="BZ9">
         <v>132.77860000000001</v>
       </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
       <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
         <v>-1.2001999999999999</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>2.1309</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>-2.0762</v>
       </c>
-      <c r="CD9">
+      <c r="CE9">
         <v>1.8969</v>
       </c>
-      <c r="CE9">
+      <c r="CF9">
         <v>4.2846000000000002</v>
       </c>
-      <c r="CF9">
+      <c r="CG9">
         <v>-22.9771</v>
       </c>
-      <c r="CG9">
+      <c r="CH9">
         <v>-10.083399999999999</v>
       </c>
-      <c r="CH9">
+      <c r="CI9">
         <v>-1.871</v>
       </c>
-      <c r="CI9">
+      <c r="CJ9">
         <v>17.788900000000002</v>
       </c>
-      <c r="CJ9">
+      <c r="CK9">
         <v>32.167000000000002</v>
       </c>
-      <c r="CK9">
+      <c r="CL9">
         <v>4.4511000000000003</v>
       </c>
-      <c r="CL9">
+      <c r="CM9">
         <v>-1.5496000000000001</v>
       </c>
-      <c r="CM9">
+      <c r="CN9">
         <v>-2.3428</v>
       </c>
-      <c r="CN9">
+      <c r="CO9">
         <v>-17.554099999999998</v>
       </c>
-      <c r="CO9">
+      <c r="CP9">
         <v>-3.1964000000000001</v>
       </c>
-      <c r="CP9">
-        <v>0</v>
-      </c>
       <c r="CQ9">
         <v>0</v>
       </c>
       <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
         <v>-7.3250999999999999</v>
       </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
       <c r="CT9">
         <v>0</v>
       </c>
@@ -4173,29 +4207,29 @@
         <v>0</v>
       </c>
       <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
         <v>-0.1174</v>
       </c>
-      <c r="CX9">
-        <v>0</v>
-      </c>
       <c r="CY9">
         <v>0</v>
       </c>
       <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
         <v>15.2583</v>
       </c>
-      <c r="DA9">
-        <v>0</v>
-      </c>
       <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
         <v>-7.6499999999999999E-2</v>
       </c>
-      <c r="DC9">
+      <c r="DD9">
         <v>-7.6379999999999999</v>
       </c>
-      <c r="DD9">
-        <v>0</v>
-      </c>
       <c r="DE9">
         <v>0</v>
       </c>
@@ -4215,211 +4249,214 @@
         <v>0</v>
       </c>
       <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
         <v>11.103300000000001</v>
       </c>
-      <c r="DL9">
-        <v>0</v>
-      </c>
       <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
         <v>1.0477000000000001</v>
       </c>
-      <c r="DN9">
-        <v>0</v>
-      </c>
       <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
         <v>3.1141999999999999</v>
       </c>
-      <c r="DP9">
+      <c r="DQ9">
         <v>2.3711000000000002</v>
       </c>
-      <c r="DQ9">
-        <v>0</v>
-      </c>
       <c r="DR9">
         <v>0</v>
       </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:122">
-      <c r="A10">
+    <row r="10" spans="1:123">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
         <v>-9.9231999999999996</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-15.7033</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-29.514299999999999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-45.787799999999997</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-21.790800000000001</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-24.8156</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-26.063700000000001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-29.3703</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-30.605699999999999</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-25.1081</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-13.1692</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-12.728300000000001</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-21.067</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-28.9361</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-40.2864</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1.306</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-15.5875</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-20.994800000000001</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>-5.4359999999999999</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-43.330599999999997</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>-19.615500000000001</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-4.7798999999999996</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-11.0837</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>4.2419000000000002</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>-21.047999999999998</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-33.508600000000001</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-22.968499999999999</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-26.710599999999999</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>-35.631799999999998</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-36.144100000000002</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-25.0276</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-72.321299999999994</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
       <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>-15.629099999999999</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-20.486799999999999</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-13.063499999999999</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>-22.814800000000002</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>-30.852599999999999</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>-20.409099999999999</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>-31.3325</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>-19.403300000000002</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>-12.240600000000001</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>-35.117100000000001</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>-45.2029</v>
       </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
       <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
         <v>-10.5106</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>3.4554</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>2.4331999999999998</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>-8.3297000000000008</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>-6.4481000000000002</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>1.4541999999999999</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>-13.372199999999999</v>
       </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
       <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
         <v>-28.630800000000001</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>-23.282</v>
       </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
       <c r="BI10">
         <v>0</v>
       </c>
@@ -4433,11 +4470,11 @@
         <v>0</v>
       </c>
       <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
         <v>1.2679</v>
       </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
       <c r="BO10">
         <v>0</v>
       </c>
@@ -4460,77 +4497,77 @@
         <v>0</v>
       </c>
       <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
         <v>-9.5564999999999998</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>-18.7776</v>
       </c>
-      <c r="BX10">
+      <c r="BY10">
         <v>-31.719000000000001</v>
       </c>
-      <c r="BY10">
+      <c r="BZ10">
         <v>-58.324100000000001</v>
       </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
       <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
         <v>-5.8400000000000001E-2</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>-1.5728</v>
       </c>
-      <c r="CC10">
+      <c r="CD10">
         <v>0.31480000000000002</v>
       </c>
-      <c r="CD10">
+      <c r="CE10">
         <v>-1.6454</v>
       </c>
-      <c r="CE10">
+      <c r="CF10">
         <v>-2.0261999999999998</v>
       </c>
-      <c r="CF10">
+      <c r="CG10">
         <v>10.7278</v>
       </c>
-      <c r="CG10">
+      <c r="CH10">
         <v>4.9673999999999996</v>
       </c>
-      <c r="CH10">
+      <c r="CI10">
         <v>4.2945000000000002</v>
       </c>
-      <c r="CI10">
+      <c r="CJ10">
         <v>-3.3639000000000001</v>
       </c>
-      <c r="CJ10">
+      <c r="CK10">
         <v>-17.8246</v>
       </c>
-      <c r="CK10">
+      <c r="CL10">
         <v>-5.9808000000000003</v>
       </c>
-      <c r="CL10">
+      <c r="CM10">
         <v>2.5899000000000001</v>
       </c>
-      <c r="CM10">
+      <c r="CN10">
         <v>0.89749999999999996</v>
       </c>
-      <c r="CN10">
+      <c r="CO10">
         <v>10.697699999999999</v>
       </c>
-      <c r="CO10">
+      <c r="CP10">
         <v>-1.1997</v>
       </c>
-      <c r="CP10">
-        <v>0</v>
-      </c>
       <c r="CQ10">
         <v>0</v>
       </c>
       <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
         <v>2.5312000000000001</v>
       </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
       <c r="CT10">
         <v>0</v>
       </c>
@@ -4541,29 +4578,29 @@
         <v>0</v>
       </c>
       <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
         <v>6.1191000000000004</v>
       </c>
-      <c r="CX10">
-        <v>0</v>
-      </c>
       <c r="CY10">
         <v>0</v>
       </c>
       <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
         <v>-8.3148999999999997</v>
       </c>
-      <c r="DA10">
-        <v>0</v>
-      </c>
       <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
         <v>0.14599999999999999</v>
       </c>
-      <c r="DC10">
+      <c r="DD10">
         <v>8.1795000000000009</v>
       </c>
-      <c r="DD10">
-        <v>0</v>
-      </c>
       <c r="DE10">
         <v>0</v>
       </c>
@@ -4583,268 +4620,271 @@
         <v>0</v>
       </c>
       <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
         <v>-11.0878</v>
       </c>
-      <c r="DL10">
-        <v>0</v>
-      </c>
       <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
         <v>0.20019999999999999</v>
       </c>
-      <c r="DN10">
-        <v>0</v>
-      </c>
       <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
         <v>-1.4995000000000001</v>
       </c>
-      <c r="DP10">
+      <c r="DQ10">
         <v>-1.4824999999999999</v>
       </c>
-      <c r="DQ10">
+      <c r="DR10">
         <v>-5.8400000000000001E-2</v>
       </c>
-      <c r="DR10">
+      <c r="DS10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:122">
-      <c r="A11">
+    <row r="11" spans="1:123">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>27</v>
-      </c>
-      <c r="F11">
-        <v>26</v>
       </c>
       <c r="G11">
         <v>26</v>
       </c>
       <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
         <v>25</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>24</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>39</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>12</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>27</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>26</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>25</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>17</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>29</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>43</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>42</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>41</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>59</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>58</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>45</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>31</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>30</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>29</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>49</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>30</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>29</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>30</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>29</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>28</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>29</v>
-      </c>
-      <c r="AH11">
-        <v>28</v>
       </c>
       <c r="AI11">
         <v>28</v>
       </c>
       <c r="AJ11">
+        <v>28</v>
+      </c>
+      <c r="AK11">
         <v>78</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>77</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>40</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>45</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>49.5</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>48.5</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>47.5</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>84</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>119.5</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>118.5</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>47.5</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>60</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>59</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>58</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>47</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>35.5</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>80</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>25</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>24</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>59.5</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>31</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>71</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>69</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>50</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>31</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>44</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <v>102</v>
       </c>
-      <c r="BK11">
+      <c r="BL11">
         <v>67.5</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>85.5</v>
       </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
       <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
         <v>44</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>58</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>57</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>72</v>
       </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
       <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
         <v>70</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>61</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>60</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>47</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>46</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>45</v>
       </c>
-      <c r="BY11">
+      <c r="BZ11">
         <v>83</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>82</v>
       </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
       <c r="CB11">
         <v>0</v>
       </c>
@@ -4972,247 +5012,250 @@
         <v>0</v>
       </c>
       <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
         <v>47.8</v>
       </c>
     </row>
-    <row r="12" spans="1:122">
-      <c r="A12" s="1">
+    <row r="12" spans="1:123">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.90110000000000001</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>0.6744</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>0.44690000000000002</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>0.2195</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>1.3453999999999999</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>1.1167</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>1.1173</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>0.88859999999999995</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>0.66049999999999998</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>0.53129999999999999</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>0.36520000000000002</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1.2663</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>1.0396000000000001</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>0.81210000000000004</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>0.8952</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>1.6724000000000001</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>1.4457</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>0.998</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>1.9031</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>1.6763999999999999</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>1.242</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>1.145</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <v>0.91830000000000001</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <v>0.69079999999999997</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <v>0.91830000000000001</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AC12" s="2">
         <v>1.3692</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <v>1.1416999999999999</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AE12" s="2">
         <v>1.4337</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
         <v>1.2070000000000001</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AG12" s="2">
         <v>0.97950000000000004</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AH12" s="2">
         <v>1.1865000000000001</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AI12" s="2">
         <v>0.9597</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AJ12" s="2">
         <v>1.06</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AK12" s="2">
         <v>2.8332000000000002</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AL12" s="2">
         <v>2.6669999999999998</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AM12" s="2">
         <v>1.6434</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AN12" s="2">
         <v>1.3012999999999999</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AO12" s="2">
         <v>1.4654</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AP12" s="2">
         <v>1.238</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AQ12" s="2">
         <v>1.006</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AR12" s="2">
         <v>2.0606</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AS12" s="2">
         <v>2.6400999999999999</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AT12" s="2">
         <v>1.8016000000000001</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AU12" s="2">
         <v>1.1561999999999999</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AV12" s="2">
         <v>1.7818000000000001</v>
       </c>
-      <c r="AV12" s="2">
+      <c r="AW12" s="2">
         <v>1.5544</v>
       </c>
-      <c r="AW12" s="2">
+      <c r="AX12" s="2">
         <v>1.4198999999999999</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="AY12" s="2">
         <v>1.651</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="AZ12" s="2">
         <v>1.264</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="BA12" s="2">
         <v>0.94920000000000004</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BB12" s="2">
         <v>1.2928999999999999</v>
       </c>
-      <c r="BB12" s="2">
+      <c r="BC12" s="2">
         <v>1.0612999999999999</v>
       </c>
-      <c r="BC12" s="2">
+      <c r="BD12" s="2">
         <v>0.79100000000000004</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BE12" s="2">
         <v>0.69479999999999997</v>
       </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="2">
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="2">
         <v>1.4059999999999999</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BH12" s="2">
         <v>1.0105</v>
       </c>
-      <c r="BH12" s="2">
+      <c r="BI12" s="2">
         <v>0.61499999999999999</v>
       </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="2">
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="2">
         <v>2.2286999999999999</v>
       </c>
-      <c r="BK12" s="2">
+      <c r="BL12" s="2">
         <v>1.6493</v>
       </c>
-      <c r="BL12" s="2">
+      <c r="BM12" s="2">
         <v>1.8173999999999999</v>
       </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="2">
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="2">
         <v>1.4515</v>
       </c>
-      <c r="BO12" s="2">
+      <c r="BP12" s="2">
         <v>2.1905000000000001</v>
       </c>
-      <c r="BP12" s="2">
+      <c r="BQ12" s="2">
         <v>1.9637</v>
       </c>
-      <c r="BQ12" s="2">
+      <c r="BR12" s="2">
         <v>2.8589000000000002</v>
       </c>
-      <c r="BR12" s="2">
+      <c r="BS12" s="2">
         <v>2.6322000000000001</v>
       </c>
-      <c r="BS12" s="2">
+      <c r="BT12" s="2">
         <v>2.4054000000000002</v>
       </c>
-      <c r="BT12" s="2">
+      <c r="BU12" s="2">
         <v>2.1225999999999998</v>
       </c>
-      <c r="BU12" s="2">
+      <c r="BV12" s="2">
         <v>1.8952</v>
       </c>
-      <c r="BV12" s="2">
+      <c r="BW12" s="2">
         <v>1.613</v>
       </c>
-      <c r="BW12" s="2">
+      <c r="BX12" s="2">
         <v>1.3863000000000001</v>
       </c>
-      <c r="BX12" s="2">
+      <c r="BY12" s="2">
         <v>1.1589</v>
       </c>
-      <c r="BY12" s="2">
+      <c r="BZ12" s="2">
         <v>2.6907999999999999</v>
       </c>
-      <c r="BZ12" s="2">
+      <c r="CA12" s="2">
         <v>2.5247000000000002</v>
       </c>
-      <c r="CA12">
-        <v>0</v>
-      </c>
       <c r="CB12">
         <v>0</v>
       </c>
@@ -5342,245 +5385,248 @@
       <c r="DR12">
         <v>0</v>
       </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:122">
-      <c r="A13" s="5">
+    <row r="13" spans="1:123">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="5">
         <v>0.84799999999999998</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>0.54</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>0.22800000000000001</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
       <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>1.1759999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>0.86699999999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.67600000000000005</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
       <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
         <v>0.4</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0.12</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>0.96799999999999997</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>0.66</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>0.34799999999999998</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>0.68</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>1.488</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>1.18</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>0.94799999999999995</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>1.728</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>1.42</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>1.1879999999999999</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <v>1.0880000000000001</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Z13" s="4">
         <v>0.78</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AA13" s="4">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AB13" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AC13" s="4">
         <v>1.236</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AD13" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AE13" s="4">
         <v>1.244</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AF13" s="4">
         <v>0.93600000000000005</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AG13" s="4">
         <v>0.624</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AH13" s="4">
         <v>0.94</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AI13" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AJ13" s="4">
         <v>0.81599999999999995</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AK13" s="4">
         <v>1.833</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AL13" s="4">
         <v>1.5529999999999999</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AM13" s="4">
         <v>1.4159999999999999</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AN13" s="4">
         <v>1.224</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AO13" s="4">
         <v>1.264</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AP13" s="4">
         <v>0.95199999999999996</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AQ13" s="4">
         <v>0.72399999999999998</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AR13" s="4">
         <v>1.6839999999999999</v>
       </c>
-      <c r="AR13" s="4">
+      <c r="AS13" s="4">
         <v>2.1840000000000002</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AT13" s="4">
         <v>1.448</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AU13" s="4">
         <v>0.84399999999999997</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AV13" s="4">
         <v>1.56</v>
       </c>
-      <c r="AV13" s="4">
+      <c r="AW13" s="4">
         <v>1.248</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="AX13" s="4">
         <v>1.1040000000000001</v>
       </c>
-      <c r="AX13" s="4">
+      <c r="AY13" s="4">
         <v>1.3680000000000001</v>
       </c>
-      <c r="AY13" s="4">
+      <c r="AZ13" s="4">
         <v>0.99199999999999999</v>
       </c>
-      <c r="AZ13" s="4">
+      <c r="BA13" s="4">
         <v>0.83199999999999996</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BB13" s="4">
         <v>1.0880000000000001</v>
       </c>
-      <c r="BB13" s="4">
+      <c r="BC13" s="4">
         <v>0.78400000000000003</v>
       </c>
-      <c r="BC13" s="4">
+      <c r="BD13" s="4">
         <v>0.72399999999999998</v>
       </c>
-      <c r="BD13" s="4">
+      <c r="BE13" s="4">
         <v>0.52400000000000002</v>
       </c>
-      <c r="BE13" s="4">
-        <v>0</v>
-      </c>
       <c r="BF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="4">
         <v>1.38</v>
       </c>
-      <c r="BG13" s="4">
+      <c r="BH13" s="4">
         <v>0.92</v>
       </c>
-      <c r="BH13" s="4">
+      <c r="BI13" s="4">
         <v>0.46</v>
       </c>
-      <c r="BI13" s="4">
-        <v>0</v>
-      </c>
       <c r="BJ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="4">
         <v>1.9159999999999999</v>
       </c>
-      <c r="BK13" s="4">
+      <c r="BL13" s="4">
         <v>1.4159999999999999</v>
       </c>
-      <c r="BL13" s="4">
+      <c r="BM13" s="4">
         <v>1.6479999999999999</v>
       </c>
-      <c r="BM13" s="4">
-        <v>0</v>
-      </c>
       <c r="BN13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="4">
         <v>1.248</v>
       </c>
-      <c r="BO13" s="4">
+      <c r="BP13" s="4">
         <v>1.796</v>
       </c>
-      <c r="BP13" s="4">
+      <c r="BQ13" s="4">
         <v>1.488</v>
       </c>
-      <c r="BQ13" s="4">
+      <c r="BR13" s="4">
         <v>2.4279999999999999</v>
       </c>
-      <c r="BR13" s="4">
+      <c r="BS13" s="4">
         <v>2.12</v>
       </c>
-      <c r="BS13" s="4">
+      <c r="BT13" s="4">
         <v>1.8120000000000001</v>
       </c>
-      <c r="BT13" s="4">
+      <c r="BU13" s="4">
         <v>1.9039999999999999</v>
       </c>
-      <c r="BU13" s="4">
+      <c r="BV13" s="4">
         <v>1.5920000000000001</v>
       </c>
-      <c r="BV13" s="4">
+      <c r="BW13" s="4">
         <v>1.3680000000000001</v>
       </c>
-      <c r="BW13" s="4">
+      <c r="BX13" s="4">
         <v>1.06</v>
       </c>
-      <c r="BX13" s="4">
+      <c r="BY13" s="4">
         <v>0.748</v>
       </c>
-      <c r="BY13" s="4">
+      <c r="BZ13" s="4">
         <v>1.86</v>
       </c>
-      <c r="BZ13" s="4">
+      <c r="CA13" s="4">
         <v>1.58</v>
       </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
       <c r="CB13">
         <v>0</v>
       </c>
@@ -5710,438 +5756,379 @@
       <c r="DR13">
         <v>0</v>
       </c>
+      <c r="DS13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:122">
-      <c r="A14" s="7">
+    <row r="14" spans="1:123">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.88939999999999997</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C14" s="7">
         <v>0.92249999999999999</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <v>0.60329999999999995</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14" s="7">
         <v>0.2878</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>1.7827</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>1.8432999999999999</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>1.7117</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>1.7957000000000001</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>1.8880999999999999</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>3.1242999999999999</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>0.92969999999999997</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>1.6254</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>1.9669000000000001</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>1.9478</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>1.7444</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>3.2151999999999998</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="R14" s="7">
         <v>4.4013999999999998</v>
       </c>
-      <c r="R14" s="7">
+      <c r="S14" s="7">
         <v>3.5668000000000002</v>
       </c>
-      <c r="S14" s="7">
+      <c r="T14" s="7">
         <v>3.8967000000000001</v>
       </c>
-      <c r="T14" s="7">
+      <c r="U14" s="7">
         <v>2.8525999999999998</v>
       </c>
-      <c r="U14" s="7">
+      <c r="V14" s="7">
         <v>3.6360000000000001</v>
       </c>
-      <c r="V14" s="7">
+      <c r="W14" s="7">
         <v>3.3953000000000002</v>
       </c>
-      <c r="W14" s="7">
+      <c r="X14" s="7">
         <v>3.1459000000000001</v>
       </c>
-      <c r="X14" s="7">
+      <c r="Y14" s="7">
         <v>2.2536</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Z14" s="7">
         <v>1.6249</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="AA14" s="7">
         <v>1.1556999999999999</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AB14" s="7">
         <v>2.5891999999999999</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AC14" s="7">
         <v>3.1656</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AD14" s="7">
         <v>2.5983000000000001</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AE14" s="7">
         <v>3.1375999999999999</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AF14" s="7">
         <v>2.6126999999999998</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AG14" s="7">
         <v>1.5780000000000001</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AH14" s="7">
         <v>2.1646999999999998</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AI14" s="7">
         <v>1.2171000000000001</v>
       </c>
-      <c r="AI14" s="7">
+      <c r="AJ14" s="7">
         <v>5.4736000000000002</v>
       </c>
-      <c r="AJ14" s="7">
+      <c r="AK14" s="7">
         <v>6.28</v>
       </c>
-      <c r="AK14" s="7">
+      <c r="AL14" s="7">
         <v>5.9234</v>
       </c>
-      <c r="AL14" s="7">
+      <c r="AM14" s="7">
         <v>5.0525000000000002</v>
       </c>
-      <c r="AM14" s="7">
+      <c r="AN14" s="7">
         <v>5.8337000000000003</v>
       </c>
-      <c r="AN14" s="7">
+      <c r="AO14" s="7">
         <v>2.9636999999999998</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AP14" s="7">
         <v>2.6947999999999999</v>
       </c>
-      <c r="AP14" s="7">
+      <c r="AQ14" s="7">
         <v>2.2073</v>
       </c>
-      <c r="AQ14" s="7">
+      <c r="AR14" s="7">
         <v>3.93</v>
       </c>
-      <c r="AR14" s="7">
+      <c r="AS14" s="7">
         <v>3.56</v>
       </c>
-      <c r="AS14" s="7">
+      <c r="AT14" s="7">
         <v>4.5796999999999999</v>
       </c>
-      <c r="AT14" s="7">
+      <c r="AU14" s="7">
         <v>2.6293000000000002</v>
       </c>
-      <c r="AU14" s="7">
+      <c r="AV14" s="7">
         <v>5.7618999999999998</v>
       </c>
-      <c r="AV14" s="7">
+      <c r="AW14" s="7">
         <v>5.0766999999999998</v>
       </c>
-      <c r="AW14" s="7">
+      <c r="AX14" s="7">
         <v>6.0837000000000003</v>
       </c>
-      <c r="AX14" s="7">
+      <c r="AY14" s="7">
         <v>3.2913999999999999</v>
       </c>
-      <c r="AY14" s="7">
+      <c r="AZ14" s="7">
         <v>3.665</v>
       </c>
-      <c r="AZ14" s="7">
+      <c r="BA14" s="7">
         <v>2.6495000000000002</v>
       </c>
-      <c r="BA14" s="7">
+      <c r="BB14" s="7">
         <v>2.3677999999999999</v>
       </c>
-      <c r="BB14" s="7">
+      <c r="BC14" s="7">
         <v>2.5644999999999998</v>
       </c>
-      <c r="BC14" s="7">
+      <c r="BD14" s="7">
         <v>1.7824</v>
       </c>
-      <c r="BD14" s="7">
+      <c r="BE14" s="7">
         <v>0.94420000000000004</v>
       </c>
-      <c r="BE14" s="7">
+      <c r="BF14" s="7">
         <v>7.2644000000000002</v>
       </c>
-      <c r="BF14" s="7">
+      <c r="BG14" s="7">
         <v>1.288</v>
       </c>
-      <c r="BG14" s="7">
+      <c r="BH14" s="7">
         <v>0.61150000000000004</v>
       </c>
-      <c r="BH14" s="7">
+      <c r="BI14" s="7">
         <v>1.1738999999999999</v>
       </c>
-      <c r="BI14" s="7">
+      <c r="BJ14" s="7">
         <v>2.6446000000000001</v>
       </c>
-      <c r="BJ14" s="7">
+      <c r="BK14" s="7">
         <v>2.8881000000000001</v>
       </c>
-      <c r="BK14" s="7">
+      <c r="BL14" s="7">
         <v>2.3086000000000002</v>
       </c>
-      <c r="BL14" s="7">
+      <c r="BM14" s="7">
         <v>1.9162999999999999</v>
       </c>
-      <c r="BM14" s="7">
+      <c r="BN14" s="7">
         <v>1.0081</v>
       </c>
-      <c r="BN14" s="7">
+      <c r="BO14" s="7">
         <v>10.3428</v>
       </c>
-      <c r="BO14" s="7">
-        <v>0</v>
-      </c>
       <c r="BP14" s="7">
         <v>0</v>
       </c>
       <c r="BQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="7">
         <v>7.6904000000000003</v>
       </c>
-      <c r="BR14" s="7">
-        <v>0</v>
-      </c>
       <c r="BS14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="7">
         <v>6.7821999999999996</v>
       </c>
-      <c r="BT14" s="7">
+      <c r="BU14" s="7">
         <v>5.5566000000000004</v>
       </c>
-      <c r="BU14" s="7">
+      <c r="BV14" s="7">
         <v>5.4248000000000003</v>
       </c>
-      <c r="BV14" s="7">
+      <c r="BW14" s="7">
         <v>3.6796000000000002</v>
       </c>
-      <c r="BW14" s="7">
+      <c r="BX14" s="7">
         <v>3.6762999999999999</v>
       </c>
-      <c r="BX14" s="7">
+      <c r="BY14" s="7">
         <v>2.6812</v>
       </c>
-      <c r="BY14" s="7">
+      <c r="BZ14" s="7">
         <v>5.7092999999999998</v>
       </c>
-      <c r="BZ14" s="7">
+      <c r="CA14" s="7">
         <v>5.8259999999999996</v>
       </c>
-      <c r="CA14" s="7">
+      <c r="CB14" s="7">
         <v>-0.1157</v>
       </c>
-      <c r="CB14" s="7">
+      <c r="CC14" s="7">
         <v>-4.8899999999999999E-2</v>
       </c>
-      <c r="CC14" s="7">
+      <c r="CD14" s="7">
         <v>0.17979999999999999</v>
       </c>
-      <c r="CD14" s="7">
+      <c r="CE14" s="7">
         <v>0.31890000000000002</v>
       </c>
-      <c r="CE14" s="7">
+      <c r="CF14" s="7">
         <v>0.72729999999999995</v>
       </c>
-      <c r="CF14" s="7">
+      <c r="CG14" s="7">
         <v>0.47449999999999998</v>
       </c>
-      <c r="CG14" s="7">
+      <c r="CH14" s="7">
         <v>0.35630000000000001</v>
       </c>
-      <c r="CH14" s="7">
+      <c r="CI14" s="7">
         <v>0.19189999999999999</v>
       </c>
-      <c r="CI14" s="7">
+      <c r="CJ14" s="7">
         <v>0.19570000000000001</v>
       </c>
-      <c r="CJ14" s="7">
+      <c r="CK14" s="7">
         <v>0.34889999999999999</v>
       </c>
-      <c r="CK14" s="7">
+      <c r="CL14" s="7">
         <v>0.15890000000000001</v>
       </c>
-      <c r="CL14" s="7">
+      <c r="CM14" s="7">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="CM14" s="7">
+      <c r="CN14" s="7">
         <v>-0.1406</v>
       </c>
-      <c r="CN14" s="7">
+      <c r="CO14" s="7">
         <v>-0.09</v>
       </c>
-      <c r="CO14" s="7">
+      <c r="CP14" s="7">
         <v>5.11E-2</v>
       </c>
-      <c r="CP14" s="7">
+      <c r="CQ14" s="7">
         <v>0.68840000000000001</v>
       </c>
-      <c r="CQ14" s="7">
+      <c r="CR14" s="7">
         <v>-0.1074</v>
       </c>
-      <c r="CR14" s="7">
+      <c r="CS14" s="7">
         <v>2.24E-2</v>
       </c>
-      <c r="CS14" s="7">
+      <c r="CT14" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="CT14" s="7">
+      <c r="CU14" s="7">
         <v>0.55800000000000005</v>
       </c>
-      <c r="CU14" s="7">
+      <c r="CV14" s="7">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="CV14" s="7">
+      <c r="CW14" s="7">
         <v>-0.1552</v>
       </c>
-      <c r="CW14" s="7">
+      <c r="CX14" s="7">
         <v>0.78010000000000002</v>
       </c>
-      <c r="CX14" s="7">
+      <c r="CY14" s="7">
         <v>-0.23830000000000001</v>
       </c>
-      <c r="CY14" s="7">
+      <c r="CZ14" s="7">
         <v>0.4456</v>
       </c>
-      <c r="CZ14" s="7">
+      <c r="DA14" s="7">
         <v>-0.19769999999999999</v>
       </c>
-      <c r="DA14" s="7">
+      <c r="DB14" s="7">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="DB14" s="7">
+      <c r="DC14" s="7">
         <v>-0.53849999999999998</v>
       </c>
-      <c r="DC14" s="7">
+      <c r="DD14" s="7">
         <v>-0.6331</v>
       </c>
-      <c r="DD14" s="7">
+      <c r="DE14" s="7">
         <v>1.4108000000000001</v>
       </c>
-      <c r="DE14" s="7">
+      <c r="DF14" s="7">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="DF14" s="7">
+      <c r="DG14" s="7">
         <v>1.0682</v>
       </c>
-      <c r="DG14" s="7">
+      <c r="DH14" s="7">
         <v>0.42470000000000002</v>
       </c>
-      <c r="DH14" s="7">
+      <c r="DI14" s="7">
         <v>0.24990000000000001</v>
       </c>
-      <c r="DI14" s="7">
+      <c r="DJ14" s="7">
         <v>0.1134</v>
       </c>
-      <c r="DJ14" s="7">
+      <c r="DK14" s="7">
         <v>-0.2596</v>
       </c>
-      <c r="DK14" s="7">
+      <c r="DL14" s="7">
         <v>0.44080000000000003</v>
       </c>
-      <c r="DL14" s="7">
+      <c r="DM14" s="7">
         <v>-0.1168</v>
       </c>
-      <c r="DM14" s="7">
+      <c r="DN14" s="7">
         <v>-0.3201</v>
       </c>
-      <c r="DN14" s="7">
+      <c r="DO14" s="7">
         <v>-0.44529999999999997</v>
       </c>
-      <c r="DO14" s="7">
+      <c r="DP14" s="7">
         <v>-0.67759999999999998</v>
       </c>
-      <c r="DP14" s="7">
+      <c r="DQ14" s="7">
         <v>-0.36780000000000002</v>
       </c>
-      <c r="DQ14" s="7">
-        <v>0</v>
-      </c>
-      <c r="DR14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>133</v>
+      <c r="DR14" s="7">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
